--- a/Outputs/excel/schedule.xlsx
+++ b/Outputs/excel/schedule.xlsx
@@ -9,29 +9,31 @@
   <sheets>
     <sheet name="Group_A1_TDA" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Group_A2_TDA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Teacher_Barbeau" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Teacher_Solé" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Teacher_Cerfbeer" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Teacher_Poussin" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Teacher_Brunelle" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Teacher_Solé" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Teacher_Poussin" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Teacher_Brunelle" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Teacher_Barbeau" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Teacher_Cerfbeer" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Teacher_Vannier" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Room_L101" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Room_L103" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Room_L102" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Statistics" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Room_L102" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Room_Online" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Room_L103" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Statistics" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Group_A1_TDA'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Group_A2_TDA'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Teacher_Barbeau'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Teacher_Solé'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Teacher_Cerfbeer'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Teacher_Poussin'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Teacher_Brunelle'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Teacher_Solé'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Teacher_Poussin'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Teacher_Brunelle'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Teacher_Barbeau'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Teacher_Cerfbeer'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Teacher_Vannier'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Room_L101'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Room_L103'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Room_L102'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Room_L102'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Room_Online'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Room_L103'!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -79,26 +81,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="0033FF57"/>
+        <bgColor rgb="0033FF57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FF5733"/>
         <bgColor rgb="00FF5733"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0033FF57"/>
-        <bgColor rgb="0033FF57"/>
+        <fgColor rgb="0000FA9A"/>
+        <bgColor rgb="0000FA9A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00DC143C"/>
         <bgColor rgb="00DC143C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000FA9A"/>
-        <bgColor rgb="0000FA9A"/>
       </patternFill>
     </fill>
     <fill>
@@ -143,10 +145,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -578,7 +580,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>15:15 - 16:45</t>
+          <t>10:00 - 11:30</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -588,12 +590,12 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Renaud Cerfbeer</t>
+          <t>Constantin Poussin</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>L101</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -603,12 +605,12 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>17:00 - 18:30</t>
+          <t>08:15 - 09:45</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -623,7 +625,7 @@
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>L101</t>
         </is>
       </c>
     </row>
@@ -633,22 +635,22 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10:00 - 11:30</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>Basic Physics</t>
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>Basic Informatics</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Renaud Cerfbeer</t>
+          <t>Christiane Brunelle</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -668,22 +670,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>08:15 - 09:45</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>Basic Physics</t>
+          <t>10:00 - 11:30</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>Basic Informatics</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Renaud Cerfbeer</t>
+          <t>Christiane Brunelle</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>L101</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -698,22 +700,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10:00 - 11:30</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
+          <t>13:30 - 15:00</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Basic Maths</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Henri Barbeau</t>
+          <t>Timothé Solé</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>L101</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -728,17 +730,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17:00 - 18:30</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
+          <t>15:15 - 16:45</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Basic Maths</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>Henri Barbeau</t>
+          <t>Timothé Solé</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -761,19 +763,19 @@
           <t>08:15 - 09:45</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>Basic Maths</t>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>Basic Physics</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>Henri Barbeau</t>
+          <t>Constantin Poussin</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -793,12 +795,12 @@
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>Basic Informatics</t>
+          <t>Basic Maths</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>Christiane Brunelle</t>
+          <t>Timothé Solé</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -818,22 +820,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17:00 - 18:30</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>Basic Physics</t>
+          <t>15:15 - 16:45</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>Basic Informatics</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>Renaud Cerfbeer</t>
+          <t>Christiane Brunelle</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>L101</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -843,27 +845,27 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13:30 - 15:00</t>
+          <t>17:00 - 18:30</t>
         </is>
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>Basic Informatics</t>
+          <t>Basic Maths</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>Christiane Brunelle</t>
+          <t>Timothé Solé</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>L101</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -878,17 +880,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17:00 - 18:30</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>Basic Informatics</t>
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>Basic Physics</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>Maurice Vannier</t>
+          <t>Constantin Poussin</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -903,27 +905,27 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>08:15 - 09:45</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>Basic Informatics</t>
+          <t>17:00 - 18:30</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>Basic Physics</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>Christiane Brunelle</t>
+          <t>Constantin Poussin</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -943,17 +945,17 @@
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>Basic Maths</t>
+          <t>Basic Informatics</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>Timothé Solé</t>
+          <t>Christiane Brunelle</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>Online</t>
         </is>
       </c>
     </row>
@@ -971,19 +973,19 @@
           <t>08:15 - 09:45</t>
         </is>
       </c>
-      <c r="D15" s="4" t="inlineStr">
-        <is>
-          <t>Basic Maths</t>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Basic Physics</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>Henri Barbeau</t>
+          <t>Constantin Poussin</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>L101</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -998,22 +1000,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10:00 - 11:30</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>Basic Physics</t>
+          <t>13:30 - 15:00</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>Basic Maths</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Renaud Cerfbeer</t>
+          <t>Timothé Solé</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>L101</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -1028,22 +1030,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13:30 - 15:00</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>Basic Physics</t>
+          <t>15:15 - 16:45</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>Basic Maths</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Renaud Cerfbeer</t>
+          <t>Timothé Solé</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>L101</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -1053,27 +1055,27 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>15:15 - 16:45</t>
-        </is>
-      </c>
-      <c r="D18" s="4" t="inlineStr">
-        <is>
-          <t>Basic Maths</t>
+          <t>10:00 - 11:30</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>Basic Physics</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Henri Barbeau</t>
+          <t>Constantin Poussin</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>L101</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -1083,27 +1085,27 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>17:00 - 18:30</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>Basic Physics</t>
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>Basic Maths</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Renaud Cerfbeer</t>
+          <t>Timothé Solé</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>L101</t>
         </is>
       </c>
     </row>
@@ -1113,27 +1115,27 @@
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>18:45 - 20:15</t>
+          <t>13:30 - 15:00</t>
         </is>
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>Basic Informatics</t>
+          <t>Basic Maths</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Christiane Brunelle</t>
+          <t>Timothé Solé</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>L101</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1145,7 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -1151,19 +1153,19 @@
           <t>13:30 - 15:00</t>
         </is>
       </c>
-      <c r="D21" s="4" t="inlineStr">
-        <is>
-          <t>Basic Maths</t>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>Basic Physics</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>Henri Barbeau</t>
+          <t>Constantin Poussin</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>L101</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1175,7 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -1181,14 +1183,14 @@
           <t>15:15 - 16:45</t>
         </is>
       </c>
-      <c r="D22" s="4" t="inlineStr">
-        <is>
-          <t>Basic Maths</t>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>Basic Physics</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Henri Barbeau</t>
+          <t>Constantin Poussin</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1203,7 +1205,7 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -1211,14 +1213,14 @@
           <t>17:00 - 18:30</t>
         </is>
       </c>
-      <c r="D23" s="5" t="inlineStr">
-        <is>
-          <t>Basic Informatics</t>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>Basic Physics</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Christiane Brunelle</t>
+          <t>Constantin Poussin</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1233,27 +1235,27 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>10:00 - 11:30</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>Basic Physics</t>
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>Basic Informatics</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Renaud Cerfbeer</t>
+          <t>Christiane Brunelle</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>L102</t>
+          <t>L103</t>
         </is>
       </c>
     </row>
@@ -1263,15 +1265,15 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>13:30 - 15:00</t>
-        </is>
-      </c>
-      <c r="D25" s="5" t="inlineStr">
+          <t>10:00 - 11:30</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
         <is>
           <t>Basic Informatics</t>
         </is>
@@ -1283,7 +1285,7 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>L102</t>
+          <t>L101</t>
         </is>
       </c>
     </row>
@@ -1298,10 +1300,10 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>08:15 - 09:45</t>
-        </is>
-      </c>
-      <c r="D26" s="5" t="inlineStr">
+          <t>13:30 - 15:00</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
         <is>
           <t>Basic Informatics</t>
         </is>
@@ -1313,7 +1315,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -1331,14 +1333,14 @@
           <t>08:15 - 09:45</t>
         </is>
       </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>Basic Physics</t>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>Basic Informatics</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Constantin Poussin</t>
+          <t>Christiane Brunelle</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1359,7 +1361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1418,22 +1420,22 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>17:00 - 18:30</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>Basic Physics</t>
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Advanced Informatics</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Constantin Poussin</t>
+          <t>Maurice Vannier</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -1443,27 +1445,27 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>15:15 - 16:45</t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="inlineStr">
-        <is>
-          <t>Advanced Physics</t>
+          <t>10:00 - 11:30</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Basic Physics</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Renaud Cerfbeer</t>
+          <t>Constantin Poussin</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1475,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -1481,9 +1483,9 @@
           <t>08:15 - 09:45</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>Basic Maths</t>
+      <c r="D4" s="7" t="inlineStr">
+        <is>
+          <t>Advanced Maths</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -1493,7 +1495,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -1503,27 +1505,27 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18:45 - 20:15</t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="inlineStr">
-        <is>
-          <t>Advanced Physics</t>
+          <t>10:00 - 11:30</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>Advanced Maths</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Constantin Poussin</t>
+          <t>Henri Barbeau</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1535,7 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -1541,7 +1543,7 @@
           <t>08:15 - 09:45</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>Basic Informatics</t>
         </is>
@@ -1553,7 +1555,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1565,7 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -1573,143 +1575,143 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>Basic Maths</t>
+          <t>Basic Informatics</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>Timothé Solé</t>
+          <t>Christiane Brunelle</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17:00 - 18:30</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>Basic Physics</t>
+          <t>13:30 - 15:00</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>Basic Maths</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>Renaud Cerfbeer</t>
+          <t>Timothé Solé</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18:45 - 20:15</t>
-        </is>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>Advanced Physics</t>
+          <t>15:15 - 16:45</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>Basic Maths</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>Renaud Cerfbeer</t>
+          <t>Timothé Solé</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13:30 - 15:00</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="inlineStr">
-        <is>
-          <t>Basic Maths</t>
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Basic Physics</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>Henri Barbeau</t>
+          <t>Constantin Poussin</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10:00 - 11:30</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Advanced Physics</t>
+          <t>13:30 - 15:00</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>Basic Maths</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>Constantin Poussin</t>
+          <t>Timothé Solé</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
@@ -1718,12 +1720,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>08:15 - 09:45</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr">
-        <is>
-          <t>Advanced Informatics</t>
+          <t>15:15 - 16:45</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>Basic Informatics</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1733,13 +1735,13 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
@@ -1748,10 +1750,10 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13:30 - 15:00</t>
-        </is>
-      </c>
-      <c r="D13" s="7" t="inlineStr">
+          <t>15:15 - 16:45</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="inlineStr">
         <is>
           <t>Advanced Informatics</t>
         </is>
@@ -1763,67 +1765,787 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>08:15 - 09:45</t>
+          <t>17:00 - 18:30</t>
         </is>
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>Basic Informatics</t>
+          <t>Basic Maths</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>Christiane Brunelle</t>
+          <t>Timothé Solé</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>18:45 - 20:15</t>
+        </is>
+      </c>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>Advanced Physics</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>Renaud Cerfbeer</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Basic Physics</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>Constantin Poussin</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>10:00 - 11:30</t>
+        </is>
+      </c>
+      <c r="D17" s="8" t="inlineStr">
+        <is>
+          <t>Advanced Physics</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>Renaud Cerfbeer</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>13:30 - 15:00</t>
+        </is>
+      </c>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>Advanced Physics</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>Renaud Cerfbeer</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>15:15 - 16:45</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="inlineStr">
+        <is>
+          <t>Advanced Informatics</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>Maurice Vannier</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>17:00 - 18:30</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>Basic Physics</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>Constantin Poussin</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
           <t>Saturday</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>08:15 - 09:45</t>
         </is>
       </c>
-      <c r="D15" s="8" t="inlineStr">
+      <c r="D21" s="8" t="inlineStr">
         <is>
           <t>Advanced Physics</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>Renaud Cerfbeer</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>L103</t>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>Basic Physics</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Constantin Poussin</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>10:00 - 11:30</t>
+        </is>
+      </c>
+      <c r="D23" s="7" t="inlineStr">
+        <is>
+          <t>Advanced Maths</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>Henri Barbeau</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>13:30 - 15:00</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>Basic Maths</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>Timothé Solé</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>15:15 - 16:45</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>Basic Maths</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>Timothé Solé</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D26" s="7" t="inlineStr">
+        <is>
+          <t>Advanced Maths</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>Henri Barbeau</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>10:00 - 11:30</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>Basic Physics</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>Constantin Poussin</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D28" s="7" t="inlineStr">
+        <is>
+          <t>Advanced Maths</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>Henri Barbeau</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>10:00 - 11:30</t>
+        </is>
+      </c>
+      <c r="D29" s="7" t="inlineStr">
+        <is>
+          <t>Advanced Maths</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>Henri Barbeau</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>13:30 - 15:00</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>Basic Maths</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>Timothé Solé</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D31" s="8" t="inlineStr">
+        <is>
+          <t>Advanced Physics</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>Renaud Cerfbeer</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>10:00 - 11:30</t>
+        </is>
+      </c>
+      <c r="D32" s="8" t="inlineStr">
+        <is>
+          <t>Advanced Physics</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>Renaud Cerfbeer</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>13:30 - 15:00</t>
+        </is>
+      </c>
+      <c r="D33" s="8" t="inlineStr">
+        <is>
+          <t>Advanced Physics</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>Renaud Cerfbeer</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>17:00 - 18:30</t>
+        </is>
+      </c>
+      <c r="D34" s="8" t="inlineStr">
+        <is>
+          <t>Advanced Physics</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>Renaud Cerfbeer</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>18:45 - 20:15</t>
+        </is>
+      </c>
+      <c r="D35" s="8" t="inlineStr">
+        <is>
+          <t>Advanced Physics</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>Renaud Cerfbeer</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D36" s="6" t="inlineStr">
+        <is>
+          <t>Advanced Informatics</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>Maurice Vannier</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>10:00 - 11:30</t>
+        </is>
+      </c>
+      <c r="D37" s="6" t="inlineStr">
+        <is>
+          <t>Advanced Informatics</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>Maurice Vannier</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>13:30 - 15:00</t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="inlineStr">
+        <is>
+          <t>Basic Informatics</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>Christiane Brunelle</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D39" s="6" t="inlineStr">
+        <is>
+          <t>Advanced Informatics</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>Maurice Vannier</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -1839,7 +2561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1893,387 +2615,27 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>08:15 - 09:45</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>Advanced Maths</t>
+          <t>10:00 - 11:30</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>Basic Informatics</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Henri Barbeau</t>
+          <t>Christiane Brunelle</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>L102</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>17:00 - 18:30</t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="inlineStr">
-        <is>
-          <t>Advanced Physics</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>Renaud Cerfbeer</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>L102</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>10:00 - 11:30</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>Basic Physics</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Renaud Cerfbeer</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>L102</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>17:00 - 18:30</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>Basic Maths</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>Henri Barbeau</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>L102</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>13:30 - 15:00</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>Basic Informatics</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>Christiane Brunelle</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>L102</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>15:15 - 16:45</t>
-        </is>
-      </c>
-      <c r="D7" s="8" t="inlineStr">
-        <is>
-          <t>Advanced Physics</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>Constantin Poussin</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>L102</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>17:00 - 18:30</t>
-        </is>
-      </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>Advanced Physics</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>Constantin Poussin</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>L102</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>08:15 - 09:45</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>Advanced Maths</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>Henri Barbeau</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>L102</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>17:00 - 18:30</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>Basic Informatics</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>Maurice Vannier</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>L102</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>10:00 - 11:30</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>Advanced Maths</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>Henri Barbeau</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>L102</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>10:00 - 11:30</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>Basic Physics</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Renaud Cerfbeer</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>L102</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>13:30 - 15:00</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>Basic Informatics</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>Christiane Brunelle</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>L102</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>10:00 - 11:30</t>
-        </is>
-      </c>
-      <c r="D14" s="7" t="inlineStr">
-        <is>
-          <t>Advanced Informatics</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>Christiane Brunelle</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>L102</t>
+          <t>Online</t>
         </is>
       </c>
     </row>
@@ -2284,6 +2646,96 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Subject</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Teacher</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Room</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>Basic Informatics</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Christiane Brunelle</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>L103</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2347,7 +2799,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2365,7 +2817,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2400,30 +2852,30 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Henri Barbeau</t>
+          <t>Timothé Solé</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>22.5</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Timothé Solé</t>
+          <t>Constantin Poussin</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -2436,55 +2888,55 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Renaud Cerfbeer</t>
+          <t>Christiane Brunelle</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Constantin Poussin</t>
+          <t>Henri Barbeau</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Christiane Brunelle</t>
+          <t>Renaud Cerfbeer</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>19.5</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -2495,14 +2947,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2580,12 +3032,12 @@
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t>Advanced Maths</t>
+          <t>Advanced Informatics</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Henri Barbeau</t>
+          <t>Maurice Vannier</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -2600,27 +3052,27 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>13:30 - 15:00</t>
+          <t>08:15 - 09:45</t>
         </is>
       </c>
       <c r="D3" s="7" t="inlineStr">
         <is>
-          <t>Advanced Informatics</t>
+          <t>Advanced Maths</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Christiane Brunelle</t>
+          <t>Henri Barbeau</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>L101</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -2630,22 +3082,22 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17:00 - 18:30</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="inlineStr">
-        <is>
-          <t>Advanced Physics</t>
+          <t>10:00 - 11:30</t>
+        </is>
+      </c>
+      <c r="D4" s="7" t="inlineStr">
+        <is>
+          <t>Advanced Maths</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Renaud Cerfbeer</t>
+          <t>Henri Barbeau</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -2660,22 +3112,22 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18:45 - 20:15</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>Advanced Informatics</t>
+          <t>13:30 - 15:00</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>Advanced Physics</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Maurice Vannier</t>
+          <t>Renaud Cerfbeer</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -2690,15 +3142,15 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>08:15 - 09:45</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
+          <t>10:00 - 11:30</t>
+        </is>
+      </c>
+      <c r="D6" s="7" t="inlineStr">
         <is>
           <t>Advanced Maths</t>
         </is>
@@ -2720,7 +3172,7 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -2730,12 +3182,12 @@
       </c>
       <c r="D7" s="7" t="inlineStr">
         <is>
-          <t>Advanced Informatics</t>
+          <t>Advanced Maths</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>Christiane Brunelle</t>
+          <t>Henri Barbeau</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -2750,7 +3202,7 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -2758,19 +3210,19 @@
           <t>15:15 - 16:45</t>
         </is>
       </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>Advanced Physics</t>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>Advanced Informatics</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>Renaud Cerfbeer</t>
+          <t>Maurice Vannier</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -2785,7 +3237,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15:15 - 16:45</t>
+          <t>18:45 - 20:15</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -2795,7 +3247,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>Constantin Poussin</t>
+          <t>Renaud Cerfbeer</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -2810,12 +3262,12 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17:00 - 18:30</t>
+          <t>10:00 - 11:30</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
@@ -2825,7 +3277,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>Constantin Poussin</t>
+          <t>Renaud Cerfbeer</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -2840,12 +3292,12 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18:45 - 20:15</t>
+          <t>13:30 - 15:00</t>
         </is>
       </c>
       <c r="D11" s="8" t="inlineStr">
@@ -2855,12 +3307,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>Constantin Poussin</t>
+          <t>Renaud Cerfbeer</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -2875,17 +3327,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>08:15 - 09:45</t>
+          <t>15:15 - 16:45</t>
         </is>
       </c>
       <c r="D12" s="6" t="inlineStr">
         <is>
-          <t>Advanced Maths</t>
+          <t>Advanced Informatics</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>Henri Barbeau</t>
+          <t>Maurice Vannier</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -2900,27 +3352,27 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15:15 - 16:45</t>
-        </is>
-      </c>
-      <c r="D13" s="7" t="inlineStr">
-        <is>
-          <t>Advanced Informatics</t>
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Advanced Physics</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>Christiane Brunelle</t>
+          <t>Renaud Cerfbeer</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>L101</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -2940,17 +3392,17 @@
       </c>
       <c r="D14" s="6" t="inlineStr">
         <is>
-          <t>Advanced Maths</t>
+          <t>Advanced Informatics</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>Henri Barbeau</t>
+          <t>Maurice Vannier</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>L102</t>
+          <t>L101</t>
         </is>
       </c>
     </row>
@@ -2965,22 +3417,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18:45 - 20:15</t>
-        </is>
-      </c>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>Advanced Physics</t>
+          <t>10:00 - 11:30</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr">
+        <is>
+          <t>Advanced Maths</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>Renaud Cerfbeer</t>
+          <t>Henri Barbeau</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -2998,19 +3450,19 @@
           <t>08:15 - 09:45</t>
         </is>
       </c>
-      <c r="D16" s="8" t="inlineStr">
-        <is>
-          <t>Advanced Physics</t>
+      <c r="D16" s="7" t="inlineStr">
+        <is>
+          <t>Advanced Maths</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Renaud Cerfbeer</t>
+          <t>Henri Barbeau</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>L101</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -3020,15 +3472,15 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10:00 - 11:30</t>
-        </is>
-      </c>
-      <c r="D17" s="6" t="inlineStr">
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D17" s="7" t="inlineStr">
         <is>
           <t>Advanced Maths</t>
         </is>
@@ -3040,7 +3492,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>L101</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -3055,10 +3507,10 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>08:15 - 09:45</t>
-        </is>
-      </c>
-      <c r="D18" s="6" t="inlineStr">
+          <t>10:00 - 11:30</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr">
         <is>
           <t>Advanced Maths</t>
         </is>
@@ -3070,7 +3522,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>L101</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -3080,12 +3532,12 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10:00 - 11:30</t>
+          <t>08:15 - 09:45</t>
         </is>
       </c>
       <c r="D19" s="8" t="inlineStr">
@@ -3095,12 +3547,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Constantin Poussin</t>
+          <t>Renaud Cerfbeer</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -3110,12 +3562,12 @@
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>13:30 - 15:00</t>
+          <t>10:00 - 11:30</t>
         </is>
       </c>
       <c r="D20" s="8" t="inlineStr">
@@ -3130,7 +3582,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>L101</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -3145,22 +3597,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>08:15 - 09:45</t>
-        </is>
-      </c>
-      <c r="D21" s="7" t="inlineStr">
-        <is>
-          <t>Advanced Informatics</t>
+          <t>13:30 - 15:00</t>
+        </is>
+      </c>
+      <c r="D21" s="8" t="inlineStr">
+        <is>
+          <t>Advanced Physics</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>Christiane Brunelle</t>
+          <t>Renaud Cerfbeer</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -3175,22 +3627,22 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>10:00 - 11:30</t>
-        </is>
-      </c>
-      <c r="D22" s="7" t="inlineStr">
-        <is>
-          <t>Advanced Informatics</t>
+          <t>17:00 - 18:30</t>
+        </is>
+      </c>
+      <c r="D22" s="8" t="inlineStr">
+        <is>
+          <t>Advanced Physics</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Christiane Brunelle</t>
+          <t>Renaud Cerfbeer</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>L101</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -3205,22 +3657,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>13:30 - 15:00</t>
-        </is>
-      </c>
-      <c r="D23" s="7" t="inlineStr">
-        <is>
-          <t>Advanced Informatics</t>
+          <t>18:45 - 20:15</t>
+        </is>
+      </c>
+      <c r="D23" s="8" t="inlineStr">
+        <is>
+          <t>Advanced Physics</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Maurice Vannier</t>
+          <t>Renaud Cerfbeer</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -3235,17 +3687,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>10:00 - 11:30</t>
-        </is>
-      </c>
-      <c r="D24" s="7" t="inlineStr">
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D24" s="6" t="inlineStr">
         <is>
           <t>Advanced Informatics</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Christiane Brunelle</t>
+          <t>Maurice Vannier</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -3265,22 +3717,22 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>13:30 - 15:00</t>
+          <t>10:00 - 11:30</t>
         </is>
       </c>
       <c r="D25" s="6" t="inlineStr">
         <is>
-          <t>Advanced Maths</t>
+          <t>Advanced Informatics</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>Henri Barbeau</t>
+          <t>Maurice Vannier</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>L101</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -3290,27 +3742,27 @@
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>08:15 - 09:45</t>
-        </is>
-      </c>
-      <c r="D26" s="8" t="inlineStr">
-        <is>
-          <t>Advanced Physics</t>
+          <t>13:30 - 15:00</t>
+        </is>
+      </c>
+      <c r="D26" s="6" t="inlineStr">
+        <is>
+          <t>Advanced Informatics</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Renaud Cerfbeer</t>
+          <t>Maurice Vannier</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>L101</t>
         </is>
       </c>
     </row>
@@ -3325,22 +3777,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>10:00 - 11:30</t>
+          <t>08:15 - 09:45</t>
         </is>
       </c>
       <c r="D27" s="6" t="inlineStr">
         <is>
-          <t>Advanced Maths</t>
+          <t>Advanced Informatics</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Henri Barbeau</t>
+          <t>Maurice Vannier</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>L101</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3808,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3410,22 +3862,22 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>08:15 - 09:45</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>Advanced Maths</t>
+          <t>13:30 - 15:00</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>Basic Maths</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Henri Barbeau</t>
+          <t>Timothé Solé</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -3440,27 +3892,27 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>08:15 - 09:45</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>Advanced Maths</t>
+          <t>15:15 - 16:45</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>Basic Maths</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Henri Barbeau</t>
+          <t>Timothé Solé</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>L101</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -3470,27 +3922,27 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10:00 - 11:30</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
+          <t>13:30 - 15:00</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Basic Maths</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Henri Barbeau</t>
+          <t>Timothé Solé</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>L101</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -3500,7 +3952,7 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -3508,14 +3960,14 @@
           <t>17:00 - 18:30</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>Basic Maths</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Henri Barbeau</t>
+          <t>Timothé Solé</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -3526,56 +3978,56 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>08:15 - 09:45</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
+          <t>13:30 - 15:00</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Basic Maths</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Henri Barbeau</t>
+          <t>Timothé Solé</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>08:15 - 09:45</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>Advanced Maths</t>
+          <t>15:15 - 16:45</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Basic Maths</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>Henri Barbeau</t>
+          <t>Timothé Solé</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -3586,31 +4038,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10:00 - 11:30</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>Advanced Maths</t>
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>Basic Maths</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>Henri Barbeau</t>
+          <t>Timothé Solé</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>L102</t>
+          <t>L101</t>
         </is>
       </c>
     </row>
@@ -3620,237 +4072,27 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>08:15 - 09:45</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
+          <t>13:30 - 15:00</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>Basic Maths</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>Henri Barbeau</t>
+          <t>Timothé Solé</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>L101</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>15:15 - 16:45</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="inlineStr">
-        <is>
-          <t>Basic Maths</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>Henri Barbeau</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>L101</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>10:00 - 11:30</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="inlineStr">
-        <is>
-          <t>Advanced Maths</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>Henri Barbeau</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>L101</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>13:30 - 15:00</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="inlineStr">
-        <is>
-          <t>Basic Maths</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Henri Barbeau</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>L103</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>15:15 - 16:45</t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="inlineStr">
-        <is>
-          <t>Basic Maths</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>Henri Barbeau</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>L101</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>08:15 - 09:45</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
-        <is>
-          <t>Advanced Maths</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>Henri Barbeau</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>L101</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>13:30 - 15:00</t>
-        </is>
-      </c>
-      <c r="D15" s="6" t="inlineStr">
-        <is>
-          <t>Advanced Maths</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>Henri Barbeau</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>L101</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>10:00 - 11:30</t>
-        </is>
-      </c>
-      <c r="D16" s="6" t="inlineStr">
-        <is>
-          <t>Advanced Maths</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>Henri Barbeau</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>L101</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -3866,7 +4108,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3920,7 +4162,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -3928,19 +4170,289 @@
           <t>10:00 - 11:30</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>Basic Maths</t>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Basic Physics</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Timothé Solé</t>
+          <t>Constantin Poussin</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Basic Physics</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Constantin Poussin</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>L101</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>Basic Physics</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Constantin Poussin</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Basic Physics</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Constantin Poussin</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>17:00 - 18:30</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Basic Physics</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Constantin Poussin</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>Basic Physics</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Constantin Poussin</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>10:00 - 11:30</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>Basic Physics</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Constantin Poussin</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>13:30 - 15:00</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Basic Physics</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Constantin Poussin</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>L101</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>15:15 - 16:45</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Basic Physics</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Constantin Poussin</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>L101</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>17:00 - 18:30</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Basic Physics</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>Constantin Poussin</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>L101</t>
         </is>
       </c>
     </row>
@@ -3956,7 +4468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4010,27 +4522,27 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>15:15 - 16:45</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>Basic Physics</t>
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>Basic Informatics</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Renaud Cerfbeer</t>
+          <t>Christiane Brunelle</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>L101</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -4040,22 +4552,22 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>17:00 - 18:30</t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="inlineStr">
-        <is>
-          <t>Advanced Physics</t>
+          <t>10:00 - 11:30</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>Basic Informatics</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Renaud Cerfbeer</t>
+          <t>Christiane Brunelle</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
@@ -4070,22 +4582,22 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10:00 - 11:30</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>Basic Physics</t>
+          <t>15:15 - 16:45</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>Basic Informatics</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Renaud Cerfbeer</t>
+          <t>Christiane Brunelle</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -4100,52 +4612,52 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>08:15 - 09:45</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>Basic Physics</t>
+          <t>10:00 - 11:30</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>Basic Informatics</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Renaud Cerfbeer</t>
+          <t>Christiane Brunelle</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>L101</t>
+          <t>Online</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15:15 - 16:45</t>
-        </is>
-      </c>
-      <c r="D6" s="8" t="inlineStr">
-        <is>
-          <t>Advanced Physics</t>
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Basic Informatics</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Renaud Cerfbeer</t>
+          <t>Christiane Brunelle</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -4156,26 +4668,26 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17:00 - 18:30</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>Basic Physics</t>
+          <t>10:00 - 11:30</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>Basic Informatics</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>Renaud Cerfbeer</t>
+          <t>Christiane Brunelle</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -4190,27 +4702,27 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10:00 - 11:30</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>Basic Physics</t>
+          <t>13:30 - 15:00</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>Basic Informatics</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>Renaud Cerfbeer</t>
+          <t>Christiane Brunelle</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>L101</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -4220,207 +4732,27 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13:30 - 15:00</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>Basic Physics</t>
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>Basic Informatics</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>Renaud Cerfbeer</t>
+          <t>Christiane Brunelle</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
           <t>L101</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>17:00 - 18:30</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>Basic Physics</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>Renaud Cerfbeer</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>L103</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>18:45 - 20:15</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>Advanced Physics</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>Renaud Cerfbeer</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>L103</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>08:15 - 09:45</t>
-        </is>
-      </c>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>Advanced Physics</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Renaud Cerfbeer</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>L101</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>10:00 - 11:30</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>Basic Physics</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>Renaud Cerfbeer</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>L102</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>13:30 - 15:00</t>
-        </is>
-      </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>Advanced Physics</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>Renaud Cerfbeer</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>L101</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>08:15 - 09:45</t>
-        </is>
-      </c>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>Advanced Physics</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>Renaud Cerfbeer</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>L103</t>
         </is>
       </c>
     </row>
@@ -4436,7 +4768,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4490,27 +4822,27 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>17:00 - 18:30</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>Basic Physics</t>
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D2" s="7" t="inlineStr">
+        <is>
+          <t>Advanced Maths</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Constantin Poussin</t>
+          <t>Henri Barbeau</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -4520,22 +4852,22 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>15:15 - 16:45</t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="inlineStr">
-        <is>
-          <t>Advanced Physics</t>
+          <t>10:00 - 11:30</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="inlineStr">
+        <is>
+          <t>Advanced Maths</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Constantin Poussin</t>
+          <t>Henri Barbeau</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
@@ -4555,22 +4887,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17:00 - 18:30</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="inlineStr">
-        <is>
-          <t>Advanced Physics</t>
+          <t>10:00 - 11:30</t>
+        </is>
+      </c>
+      <c r="D4" s="7" t="inlineStr">
+        <is>
+          <t>Advanced Maths</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Constantin Poussin</t>
+          <t>Henri Barbeau</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>L102</t>
+          <t>L101</t>
         </is>
       </c>
     </row>
@@ -4585,22 +4917,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18:45 - 20:15</t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="inlineStr">
-        <is>
-          <t>Advanced Physics</t>
+          <t>13:30 - 15:00</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>Advanced Maths</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Constantin Poussin</t>
+          <t>Henri Barbeau</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>L101</t>
         </is>
       </c>
     </row>
@@ -4610,7 +4942,7 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -4618,19 +4950,19 @@
           <t>10:00 - 11:30</t>
         </is>
       </c>
-      <c r="D6" s="8" t="inlineStr">
-        <is>
-          <t>Advanced Physics</t>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>Advanced Maths</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Constantin Poussin</t>
+          <t>Henri Barbeau</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4972,7 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -4648,19 +4980,79 @@
           <t>08:15 - 09:45</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>Basic Physics</t>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>Advanced Maths</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>Constantin Poussin</t>
+          <t>Henri Barbeau</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>L101</t>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr">
+        <is>
+          <t>Advanced Maths</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>Henri Barbeau</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>10:00 - 11:30</t>
+        </is>
+      </c>
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>Advanced Maths</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Henri Barbeau</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -4676,7 +5068,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4730,7 +5122,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -4738,14 +5130,14 @@
           <t>13:30 - 15:00</t>
         </is>
       </c>
-      <c r="D2" s="7" t="inlineStr">
-        <is>
-          <t>Advanced Informatics</t>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>Advanced Physics</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Christiane Brunelle</t>
+          <t>Renaud Cerfbeer</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -4760,27 +5152,27 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>13:30 - 15:00</t>
-        </is>
-      </c>
-      <c r="D3" s="7" t="inlineStr">
-        <is>
-          <t>Advanced Informatics</t>
+          <t>18:45 - 20:15</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>Advanced Physics</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Christiane Brunelle</t>
+          <t>Renaud Cerfbeer</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>L101</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -4790,22 +5182,22 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13:30 - 15:00</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>Basic Informatics</t>
+          <t>10:00 - 11:30</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>Advanced Physics</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Christiane Brunelle</t>
+          <t>Renaud Cerfbeer</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -4828,19 +5220,19 @@
           <t>13:30 - 15:00</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>Basic Informatics</t>
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>Advanced Physics</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Christiane Brunelle</t>
+          <t>Renaud Cerfbeer</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>L101</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -4850,37 +5242,37 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15:15 - 16:45</t>
-        </is>
-      </c>
-      <c r="D6" s="7" t="inlineStr">
-        <is>
-          <t>Advanced Informatics</t>
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>Advanced Physics</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Christiane Brunelle</t>
+          <t>Renaud Cerfbeer</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>L101</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -4888,19 +5280,19 @@
           <t>08:15 - 09:45</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>Basic Informatics</t>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>Advanced Physics</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>Christiane Brunelle</t>
+          <t>Renaud Cerfbeer</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -4910,27 +5302,27 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18:45 - 20:15</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>Basic Informatics</t>
+          <t>10:00 - 11:30</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Advanced Physics</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>Christiane Brunelle</t>
+          <t>Renaud Cerfbeer</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>L101</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -4940,27 +5332,27 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17:00 - 18:30</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>Basic Informatics</t>
+          <t>13:30 - 15:00</t>
+        </is>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>Advanced Physics</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>Christiane Brunelle</t>
+          <t>Renaud Cerfbeer</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>L101</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -4975,22 +5367,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>08:15 - 09:45</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr">
-        <is>
-          <t>Advanced Informatics</t>
+          <t>17:00 - 18:30</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>Advanced Physics</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>Christiane Brunelle</t>
+          <t>Renaud Cerfbeer</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>L103</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -5005,110 +5397,20 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10:00 - 11:30</t>
-        </is>
-      </c>
-      <c r="D11" s="7" t="inlineStr">
-        <is>
-          <t>Advanced Informatics</t>
+          <t>18:45 - 20:15</t>
+        </is>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>Advanced Physics</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>Christiane Brunelle</t>
+          <t>Renaud Cerfbeer</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>L101</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>13:30 - 15:00</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>Basic Informatics</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Christiane Brunelle</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>L102</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>08:15 - 09:45</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>Basic Informatics</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>Christiane Brunelle</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>L103</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>10:00 - 11:30</t>
-        </is>
-      </c>
-      <c r="D14" s="7" t="inlineStr">
-        <is>
-          <t>Advanced Informatics</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>Christiane Brunelle</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>L102</t>
         </is>
@@ -5126,7 +5428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5185,10 +5487,10 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>18:45 - 20:15</t>
-        </is>
-      </c>
-      <c r="D2" s="7" t="inlineStr">
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>Advanced Informatics</t>
         </is>
@@ -5200,7 +5502,7 @@
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>L101</t>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -5210,17 +5512,17 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>17:00 - 18:30</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>Basic Informatics</t>
+          <t>15:15 - 16:45</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Advanced Informatics</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
@@ -5236,31 +5538,181 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>15:15 - 16:45</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Advanced Informatics</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Maurice Vannier</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10:00 - 11:30</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Advanced Informatics</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Maurice Vannier</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>L101</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>Advanced Informatics</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Maurice Vannier</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10:00 - 11:30</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Advanced Informatics</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Maurice Vannier</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
           <t>13:30 - 15:00</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>Advanced Informatics</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>Maurice Vannier</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>L103</t>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>L101</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Advanced Informatics</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Maurice Vannier</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>L102</t>
         </is>
       </c>
     </row>
@@ -5276,7 +5728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5330,22 +5782,22 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>13:30 - 15:00</t>
-        </is>
-      </c>
-      <c r="D2" s="7" t="inlineStr">
-        <is>
-          <t>Advanced Informatics</t>
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Basic Physics</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Christiane Brunelle</t>
+          <t>Constantin Poussin</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -5360,17 +5812,17 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>15:15 - 16:45</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>Basic Physics</t>
+          <t>13:30 - 15:00</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>Advanced Physics</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
@@ -5390,22 +5842,22 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18:45 - 20:15</t>
+          <t>10:00 - 11:30</t>
         </is>
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t>Advanced Informatics</t>
+          <t>Advanced Maths</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Maurice Vannier</t>
+          <t>Henri Barbeau</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -5420,15 +5872,15 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>08:15 - 09:45</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
+          <t>13:30 - 15:00</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
         <is>
           <t>Advanced Maths</t>
         </is>
@@ -5450,22 +5902,22 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>08:15 - 09:45</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>Basic Physics</t>
+          <t>10:00 - 11:30</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>Advanced Informatics</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Renaud Cerfbeer</t>
+          <t>Maurice Vannier</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -5476,7 +5928,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
@@ -5485,17 +5937,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10:00 - 11:30</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Basic Maths</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>Henri Barbeau</t>
+          <t>Timothé Solé</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -5506,11 +5958,11 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -5518,14 +5970,14 @@
           <t>13:30 - 15:00</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr">
-        <is>
-          <t>Advanced Informatics</t>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>Basic Physics</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>Christiane Brunelle</t>
+          <t>Constantin Poussin</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -5536,7 +5988,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
@@ -5545,7 +5997,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17:00 - 18:30</t>
+          <t>15:15 - 16:45</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -5555,7 +6007,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>Renaud Cerfbeer</t>
+          <t>Constantin Poussin</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -5566,26 +6018,26 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13:30 - 15:00</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>Basic Informatics</t>
+          <t>17:00 - 18:30</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Basic Physics</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>Christiane Brunelle</t>
+          <t>Constantin Poussin</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -5596,7 +6048,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
@@ -5605,12 +6057,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15:15 - 16:45</t>
-        </is>
-      </c>
-      <c r="D11" s="7" t="inlineStr">
-        <is>
-          <t>Advanced Informatics</t>
+          <t>10:00 - 11:30</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>Basic Informatics</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -5630,22 +6082,22 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>08:15 - 09:45</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="inlineStr">
-        <is>
-          <t>Basic Maths</t>
+          <t>13:30 - 15:00</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>Advanced Informatics</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>Henri Barbeau</t>
+          <t>Maurice Vannier</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -5660,415 +6112,25 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10:00 - 11:30</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>Basic Physics</t>
+          <t>08:15 - 09:45</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>Basic Informatics</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>Renaud Cerfbeer</t>
+          <t>Christiane Brunelle</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>L101</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>13:30 - 15:00</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>Basic Physics</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>Renaud Cerfbeer</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>L101</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>15:15 - 16:45</t>
-        </is>
-      </c>
-      <c r="D15" s="4" t="inlineStr">
-        <is>
-          <t>Basic Maths</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>Henri Barbeau</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>L101</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>18:45 - 20:15</t>
-        </is>
-      </c>
-      <c r="D16" s="5" t="inlineStr">
-        <is>
-          <t>Basic Informatics</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>Christiane Brunelle</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>L101</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>08:15 - 09:45</t>
-        </is>
-      </c>
-      <c r="D17" s="8" t="inlineStr">
-        <is>
-          <t>Advanced Physics</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>Renaud Cerfbeer</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>L101</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>10:00 - 11:30</t>
-        </is>
-      </c>
-      <c r="D18" s="6" t="inlineStr">
-        <is>
-          <t>Advanced Maths</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>Henri Barbeau</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>L101</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>15:15 - 16:45</t>
-        </is>
-      </c>
-      <c r="D19" s="4" t="inlineStr">
-        <is>
-          <t>Basic Maths</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>Henri Barbeau</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>L101</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>17:00 - 18:30</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="inlineStr">
-        <is>
-          <t>Basic Informatics</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>Christiane Brunelle</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>L101</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>08:15 - 09:45</t>
-        </is>
-      </c>
-      <c r="D21" s="6" t="inlineStr">
-        <is>
-          <t>Advanced Maths</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>Henri Barbeau</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>L101</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>13:30 - 15:00</t>
-        </is>
-      </c>
-      <c r="D22" s="8" t="inlineStr">
-        <is>
-          <t>Advanced Physics</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>Renaud Cerfbeer</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>L101</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>10:00 - 11:30</t>
-        </is>
-      </c>
-      <c r="D23" s="7" t="inlineStr">
-        <is>
-          <t>Advanced Informatics</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>Christiane Brunelle</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>L101</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>13:30 - 15:00</t>
-        </is>
-      </c>
-      <c r="D24" s="6" t="inlineStr">
-        <is>
-          <t>Advanced Maths</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>Henri Barbeau</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>L101</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>08:15 - 09:45</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>Basic Physics</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>Constantin Poussin</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>L101</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>10:00 - 11:30</t>
-        </is>
-      </c>
-      <c r="D26" s="6" t="inlineStr">
-        <is>
-          <t>Advanced Maths</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>Henri Barbeau</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>L101</t>
         </is>
